--- a/Darbuotojų skaičius/darbuotojai.xlsx
+++ b/Darbuotojų skaičius/darbuotojai.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sprei\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vult-my.sharepoint.com/personal/saulius_preidys_itpc_vu_lt/Documents/Documents/GitHub/powerexceandpowerbi/Darbuotojų skaičius/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499B7599-2446-4A88-B894-640ADEC69453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{499B7599-2446-4A88-B894-640ADEC69453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5941F588-7536-488E-A96E-0CBF85F5F073}"/>
   <bookViews>
-    <workbookView xWindow="684" yWindow="1176" windowWidth="21600" windowHeight="11232" xr2:uid="{4C1581C9-92C9-400D-87EE-2AA9F80FF056}"/>
+    <workbookView xWindow="684" yWindow="1152" windowWidth="21600" windowHeight="11232" xr2:uid="{4C1581C9-92C9-400D-87EE-2AA9F80FF056}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table1" sheetId="2" r:id="rId1"/>
+    <sheet name="Duomenys" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CFCF33-6D82-4E71-B286-F52CB6132586}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
